--- a/DummyData/ins_phone.xlsx
+++ b/DummyData/ins_phone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -61,23 +61,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +85,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,13 +94,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,26 +115,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,16 +160,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -189,21 +204,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,55 +214,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,127 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,21 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +432,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -458,17 +452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,9 +473,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,8 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,152 +510,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,9 +663,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -992,11 +989,11 @@
   <sheetPr/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.7" customWidth="1"/>
     <col min="3" max="3" width="15.1" customWidth="1"/>
@@ -1012,10 +1009,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1026,7 +1023,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1037,7 +1034,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1048,7 +1045,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1059,7 +1056,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1070,7 +1067,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1081,7 +1078,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1092,7 +1089,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1103,7 +1100,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1114,7 +1111,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1125,7 +1122,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1136,7 +1133,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1147,7 +1144,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1158,7 +1155,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1169,7 +1166,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1180,7 +1177,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1191,7 +1188,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1202,7 +1199,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1213,7 +1210,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1224,7 +1221,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1235,7 +1232,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1246,7 +1243,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1257,7 +1254,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1268,7 +1265,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1279,7 +1276,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1290,7 +1287,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1301,7 +1298,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1312,7 +1309,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1323,7 +1320,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1334,7 +1331,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1345,7 +1342,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1356,7 +1353,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1367,7 +1364,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1378,7 +1375,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1389,7 +1386,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1400,7 +1397,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1411,7 +1408,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1422,7 +1419,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1433,7 +1430,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1444,7 +1441,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1455,7 +1452,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1466,7 +1463,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1477,7 +1474,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1488,7 +1485,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1499,7 +1496,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1510,7 +1507,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1521,7 +1518,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1532,7 +1529,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1543,7 +1540,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1554,7 +1551,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1565,7 +1562,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1576,7 +1573,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1587,7 +1584,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1598,7 +1595,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1609,7 +1606,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1620,7 +1617,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1631,7 +1628,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1642,7 +1639,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1653,7 +1650,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1664,7 +1661,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1675,7 +1672,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1686,7 +1683,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1697,7 +1694,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1708,7 +1705,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1719,7 +1716,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1730,7 +1727,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1741,7 +1738,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1752,7 +1749,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1763,7 +1760,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1774,7 +1771,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71">
@@ -1785,7 +1782,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72">
@@ -1796,7 +1793,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73">
@@ -1807,7 +1804,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1818,7 +1815,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75">
@@ -1829,7 +1826,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1840,7 +1837,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77">
@@ -1851,7 +1848,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1862,7 +1859,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79">
@@ -1873,7 +1870,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1884,7 +1881,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81">
@@ -1895,7 +1892,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1906,7 +1903,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83">
@@ -1917,7 +1914,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1928,7 +1925,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85">
@@ -1939,7 +1936,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1950,7 +1947,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87">
@@ -1961,7 +1958,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1972,7 +1969,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89">
@@ -1983,7 +1980,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1994,7 +1991,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2005,7 +2002,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2016,7 +2013,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2027,7 +2024,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2038,7 +2035,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2049,7 +2046,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2060,7 +2057,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2071,7 +2068,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98">
@@ -2082,7 +2079,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99">
@@ -2093,7 +2090,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100">
@@ -2104,7 +2101,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101">
@@ -2115,10 +2112,10 @@
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="4"/>
+      <c r="A103" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
